--- a/sorted_sentiment_analysis.xlsx
+++ b/sorted_sentiment_analysis.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cac0dc9d13d256c9/Documents/Advanced Willy/Final Data/Presentation/solaregypt/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cac0dc9d13d256c9/Documents/Advanced Willy/NUFDI/NUFDI/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_5045EC5CC344DEDFE54878D6425DCE3A874BDFE8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8FF10580-C358-44B1-B7F4-80FC9F5032D8}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="11_5045EC5CC344DEDFE54878D6425DCE3A874BDFE8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4E94314D-0F2B-4027-8D7D-EE015E163C91}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -10524,10 +10524,10 @@
 diplomatic relationships.</t>
   </si>
   <si>
-    <t>text</t>
+    <t>date</t>
   </si>
   <si>
-    <t>date</t>
+    <t>Text</t>
   </si>
 </sst>
 </file>
@@ -10535,7 +10535,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -10586,12 +10586,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -10607,6 +10610,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -10896,8 +10903,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C111"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScale="165" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -10907,10 +10914,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>112</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>111</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -10982,11 +10989,11 @@
         <v>-0.99980000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:3" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A8" s="2">
         <v>44829</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C8">
@@ -11048,22 +11055,22 @@
         <v>-0.99960000000000004</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:3" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A14" s="2">
         <v>44831</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C14">
         <v>-0.99919999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:3" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A15" s="2">
         <v>44831</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C15">
@@ -11213,11 +11220,11 @@
         <v>-0.99980000000000002</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:3" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A29" s="2">
         <v>44841</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C29">
@@ -11521,11 +11528,11 @@
         <v>0.96830000000000005</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:3" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A57" s="2">
         <v>44899</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="3" t="s">
         <v>56</v>
       </c>
       <c r="C57">
@@ -11697,11 +11704,11 @@
         <v>-0.99790000000000001</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:3" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A73" s="2">
         <v>44982</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B73" s="3" t="s">
         <v>72</v>
       </c>
       <c r="C73">
@@ -12005,11 +12012,11 @@
         <v>-0.99829999999999997</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:3" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A101" s="2">
         <v>45313</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B101" s="3" t="s">
         <v>100</v>
       </c>
       <c r="C101">
